--- a/URS/DbLayouts/L6-共同作業/CdEmp.xlsx
+++ b/URS/DbLayouts/L6-共同作業/CdEmp.xlsx
@@ -1,27 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\192.168.10.16\St1Share(NAS)\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8207D7B8-3480-441A-9D1E-C30E1C4790FA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="328">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -597,10 +596,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AgStatusCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AgStatusDate</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1134,28 +1129,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>AgCurInd</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CommLineType</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AgentId</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AgentId =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>findAgentIdFirst</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fullname</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AgPost</t>
@@ -1255,11 +1238,31 @@
     <t xml:space="preserve">EmployeeNo &gt;= ,AND EmployeeNo &lt;= , AND AgCurInd = </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>AgStatusCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgCurInd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmployeeNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fullname</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgentId =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1496,7 +1499,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1587,23 +1590,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1639,23 +1625,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1831,11 +1800,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1868,7 +1837,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="12" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>11</v>
@@ -1883,7 +1852,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>201</v>
+        <v>325</v>
       </c>
       <c r="D3" s="16" t="s">
         <v>19</v>
@@ -1920,7 +1889,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="8" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="14"/>
@@ -2017,10 +1986,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>3</v>
@@ -2099,14 +2068,14 @@
         <v>30</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E16" s="18">
         <v>8</v>
       </c>
       <c r="F16" s="18"/>
       <c r="G16" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2158,7 +2127,7 @@
         <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E19" s="18">
         <v>8</v>
@@ -2190,7 +2159,7 @@
         <v>12</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>162</v>
+        <v>323</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>21</v>
@@ -2203,7 +2172,7 @@
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -2211,20 +2180,20 @@
         <v>13</v>
       </c>
       <c r="B22" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="C22" s="18" t="s">
-        <v>164</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E22" s="18">
         <v>8</v>
       </c>
       <c r="F22" s="18"/>
       <c r="G22" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -2232,13 +2201,13 @@
         <v>14</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>35</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E23" s="18">
         <v>8</v>
@@ -2251,7 +2220,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>36</v>
@@ -2270,13 +2239,13 @@
         <v>16</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>37</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E25" s="18">
         <v>8</v>
@@ -2289,7 +2258,7 @@
         <v>17</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C26" s="18" t="s">
         <v>38</v>
@@ -2308,7 +2277,7 @@
         <v>18</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>39</v>
@@ -2327,7 +2296,7 @@
         <v>19</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" s="18" t="s">
         <v>40</v>
@@ -2346,7 +2315,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>41</v>
@@ -2365,7 +2334,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>42</v>
@@ -2384,7 +2353,7 @@
         <v>22</v>
       </c>
       <c r="B31" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C31" s="18" t="s">
         <v>43</v>
@@ -2403,13 +2372,13 @@
         <v>23</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>44</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E32" s="18">
         <v>8</v>
@@ -2422,7 +2391,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>45</v>
@@ -2441,7 +2410,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>46</v>
@@ -2460,7 +2429,7 @@
         <v>26</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>47</v>
@@ -2479,7 +2448,7 @@
         <v>27</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>48</v>
@@ -2498,7 +2467,7 @@
         <v>28</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>49</v>
@@ -2519,7 +2488,7 @@
         <v>29</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>50</v>
@@ -2538,7 +2507,7 @@
         <v>30</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>51</v>
@@ -2557,7 +2526,7 @@
         <v>31</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>52</v>
@@ -2576,13 +2545,13 @@
         <v>32</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>53</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E41" s="18">
         <v>8</v>
@@ -2595,13 +2564,13 @@
         <v>33</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C42" s="18" t="s">
         <v>54</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E42" s="18">
         <v>8</v>
@@ -2614,13 +2583,13 @@
         <v>34</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>55</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E43" s="18">
         <v>8</v>
@@ -2633,7 +2602,7 @@
         <v>35</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>56</v>
@@ -2652,7 +2621,7 @@
         <v>36</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>57</v>
@@ -2671,7 +2640,7 @@
         <v>37</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>58</v>
@@ -2690,13 +2659,13 @@
         <v>38</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C47" s="18" t="s">
         <v>59</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E47" s="18">
         <v>8</v>
@@ -2709,7 +2678,7 @@
         <v>39</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C48" s="18" t="s">
         <v>60</v>
@@ -2728,7 +2697,7 @@
         <v>40</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C49" s="18" t="s">
         <v>61</v>
@@ -2747,7 +2716,7 @@
         <v>41</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>62</v>
@@ -2766,13 +2735,13 @@
         <v>42</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>63</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E51" s="18">
         <v>8</v>
@@ -2785,13 +2754,13 @@
         <v>43</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>64</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E52" s="18">
         <v>8</v>
@@ -2804,7 +2773,7 @@
         <v>44</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>65</v>
@@ -2823,13 +2792,13 @@
         <v>45</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>66</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E54" s="18">
         <v>8</v>
@@ -2842,7 +2811,7 @@
         <v>46</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>67</v>
@@ -2861,10 +2830,10 @@
         <v>47</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D56" s="18" t="s">
         <v>3</v>
@@ -2880,7 +2849,7 @@
         <v>48</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>68</v>
@@ -2893,7 +2862,7 @@
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
@@ -2901,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>69</v>
@@ -2920,7 +2889,7 @@
         <v>50</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>70</v>
@@ -2939,7 +2908,7 @@
         <v>51</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>71</v>
@@ -2958,7 +2927,7 @@
         <v>52</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C61" s="18" t="s">
         <v>72</v>
@@ -2977,7 +2946,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="18" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C62" s="18" t="s">
         <v>73</v>
@@ -2998,7 +2967,7 @@
         <v>54</v>
       </c>
       <c r="B63" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C63" s="18" t="s">
         <v>74</v>
@@ -3017,7 +2986,7 @@
         <v>55</v>
       </c>
       <c r="B64" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C64" s="18" t="s">
         <v>75</v>
@@ -3036,7 +3005,7 @@
         <v>56</v>
       </c>
       <c r="B65" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C65" s="18" t="s">
         <v>76</v>
@@ -3055,7 +3024,7 @@
         <v>57</v>
       </c>
       <c r="B66" s="18" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C66" s="18" t="s">
         <v>77</v>
@@ -3074,7 +3043,7 @@
         <v>58</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>78</v>
@@ -3093,7 +3062,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>79</v>
@@ -3112,7 +3081,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>80</v>
@@ -3131,7 +3100,7 @@
         <v>61</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>81</v>
@@ -3150,7 +3119,7 @@
         <v>62</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>82</v>
@@ -3169,7 +3138,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>298</v>
+        <v>324</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>149</v>
@@ -3190,7 +3159,7 @@
         <v>64</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>83</v>
@@ -3209,13 +3178,13 @@
         <v>65</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>84</v>
       </c>
       <c r="D74" s="18" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E74" s="18">
         <v>100</v>
@@ -3228,13 +3197,13 @@
         <v>66</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>85</v>
       </c>
       <c r="D75" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E75" s="18">
         <v>8</v>
@@ -3247,13 +3216,13 @@
         <v>67</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>86</v>
       </c>
       <c r="D76" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E76" s="18">
         <v>8</v>
@@ -3266,13 +3235,13 @@
         <v>68</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C77" s="18" t="s">
         <v>87</v>
       </c>
       <c r="D77" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E77" s="18">
         <v>8</v>
@@ -3285,13 +3254,13 @@
         <v>69</v>
       </c>
       <c r="B78" s="18" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="18" t="s">
         <v>88</v>
       </c>
       <c r="D78" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E78" s="18">
         <v>8</v>
@@ -3304,7 +3273,7 @@
         <v>70</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C79" s="18" t="s">
         <v>89</v>
@@ -3323,7 +3292,7 @@
         <v>71</v>
       </c>
       <c r="B80" s="18" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C80" s="18" t="s">
         <v>90</v>
@@ -3342,13 +3311,13 @@
         <v>72</v>
       </c>
       <c r="B81" s="18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" s="18" t="s">
         <v>91</v>
       </c>
       <c r="D81" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E81" s="18">
         <v>8</v>
@@ -3361,7 +3330,7 @@
         <v>73</v>
       </c>
       <c r="B82" s="18" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C82" s="18" t="s">
         <v>92</v>
@@ -3380,7 +3349,7 @@
         <v>74</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>93</v>
@@ -3399,7 +3368,7 @@
         <v>75</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>94</v>
@@ -3418,7 +3387,7 @@
         <v>76</v>
       </c>
       <c r="B85" s="18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C85" s="18" t="s">
         <v>95</v>
@@ -3437,7 +3406,7 @@
         <v>77</v>
       </c>
       <c r="B86" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C86" s="18" t="s">
         <v>96</v>
@@ -3456,7 +3425,7 @@
         <v>78</v>
       </c>
       <c r="B87" s="18" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C87" s="18" t="s">
         <v>97</v>
@@ -3475,7 +3444,7 @@
         <v>79</v>
       </c>
       <c r="B88" s="18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C88" s="18" t="s">
         <v>98</v>
@@ -3494,7 +3463,7 @@
         <v>80</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C89" s="18" t="s">
         <v>99</v>
@@ -3513,7 +3482,7 @@
         <v>81</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C90" s="18" t="s">
         <v>100</v>
@@ -3532,7 +3501,7 @@
         <v>82</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C91" s="18" t="s">
         <v>101</v>
@@ -3551,20 +3520,20 @@
         <v>83</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="C92" s="18" t="s">
         <v>102</v>
       </c>
       <c r="D92" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E92" s="18">
         <v>40</v>
       </c>
       <c r="F92" s="18"/>
       <c r="G92" s="18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -3572,13 +3541,13 @@
         <v>84</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C93" s="18" t="s">
         <v>103</v>
       </c>
       <c r="D93" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E93" s="18">
         <v>8</v>
@@ -3591,7 +3560,7 @@
         <v>85</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C94" s="18" t="s">
         <v>104</v>
@@ -3610,7 +3579,7 @@
         <v>86</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="18" t="s">
         <v>105</v>
@@ -3629,13 +3598,13 @@
         <v>87</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C96" s="18" t="s">
         <v>106</v>
       </c>
       <c r="D96" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E96" s="18">
         <v>8</v>
@@ -3648,20 +3617,20 @@
         <v>88</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C97" s="18" t="s">
         <v>107</v>
       </c>
       <c r="D97" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E97" s="18">
         <v>8</v>
       </c>
       <c r="F97" s="18"/>
       <c r="G97" s="19" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
@@ -3669,13 +3638,13 @@
         <v>89</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C98" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D98" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E98" s="18">
         <v>10</v>
@@ -3688,13 +3657,13 @@
         <v>90</v>
       </c>
       <c r="B99" s="18" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="D99" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E99" s="18">
         <v>20</v>
@@ -3707,7 +3676,7 @@
         <v>91</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C100" s="18" t="s">
         <v>109</v>
@@ -3726,13 +3695,13 @@
         <v>92</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C101" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D101" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E101" s="18">
         <v>10</v>
@@ -3745,13 +3714,13 @@
         <v>93</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C102" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D102" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E102" s="18">
         <v>20</v>
@@ -3764,7 +3733,7 @@
         <v>94</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C103" s="18" t="s">
         <v>112</v>
@@ -3783,13 +3752,13 @@
         <v>95</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C104" s="18" t="s">
         <v>113</v>
       </c>
       <c r="D104" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E104" s="18">
         <v>10</v>
@@ -3802,13 +3771,13 @@
         <v>96</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C105" s="18" t="s">
         <v>114</v>
       </c>
       <c r="D105" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E105" s="18">
         <v>20</v>
@@ -3821,7 +3790,7 @@
         <v>97</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C106" s="18" t="s">
         <v>115</v>
@@ -3840,13 +3809,13 @@
         <v>98</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C107" s="18" t="s">
         <v>116</v>
       </c>
       <c r="D107" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E107" s="18">
         <v>20</v>
@@ -3859,7 +3828,7 @@
         <v>99</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C108" s="18" t="s">
         <v>117</v>
@@ -3878,13 +3847,13 @@
         <v>100</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>118</v>
       </c>
       <c r="D109" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E109" s="18">
         <v>20</v>
@@ -3897,7 +3866,7 @@
         <v>101</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>119</v>
@@ -3918,13 +3887,13 @@
         <v>102</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>120</v>
       </c>
       <c r="D111" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E111" s="18">
         <v>10</v>
@@ -3939,7 +3908,7 @@
         <v>103</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>121</v>
@@ -3958,7 +3927,7 @@
         <v>104</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>122</v>
@@ -3977,7 +3946,7 @@
         <v>105</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>123</v>
@@ -3996,7 +3965,7 @@
         <v>106</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>124</v>
@@ -4015,7 +3984,7 @@
         <v>107</v>
       </c>
       <c r="B116" s="18" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>125</v>
@@ -4034,7 +4003,7 @@
         <v>108</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>126</v>
@@ -4053,7 +4022,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>127</v>
@@ -4072,13 +4041,13 @@
         <v>110</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C119" s="18" t="s">
         <v>128</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E119" s="18">
         <v>8</v>
@@ -4091,13 +4060,13 @@
         <v>111</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>129</v>
       </c>
       <c r="D120" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E120" s="18">
         <v>8</v>
@@ -4110,13 +4079,13 @@
         <v>112</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>130</v>
       </c>
       <c r="D121" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E121" s="18">
         <v>20</v>
@@ -4129,13 +4098,13 @@
         <v>113</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D122" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E122" s="18">
         <v>8</v>
@@ -4148,13 +4117,13 @@
         <v>114</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>132</v>
       </c>
       <c r="D123" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E123" s="18">
         <v>8</v>
@@ -4167,13 +4136,13 @@
         <v>115</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D124" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E124" s="18">
         <v>8</v>
@@ -4186,13 +4155,13 @@
         <v>116</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C125" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D125" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E125" s="18">
         <v>8</v>
@@ -4205,13 +4174,13 @@
         <v>117</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C126" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D126" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E126" s="18">
         <v>8</v>
@@ -4224,13 +4193,13 @@
         <v>118</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C127" s="18" t="s">
         <v>136</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E127" s="18">
         <v>8</v>
@@ -4243,13 +4212,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C128" s="18" t="s">
         <v>137</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E128" s="18">
         <v>20</v>
@@ -4262,7 +4231,7 @@
         <v>120</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C129" s="18" t="s">
         <v>138</v>
@@ -4281,7 +4250,7 @@
         <v>121</v>
       </c>
       <c r="B130" s="18" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C130" s="18" t="s">
         <v>139</v>
@@ -4300,7 +4269,7 @@
         <v>122</v>
       </c>
       <c r="B131" s="18" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C131" s="18" t="s">
         <v>140</v>
@@ -4319,7 +4288,7 @@
         <v>123</v>
       </c>
       <c r="B132" s="18" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C132" s="18" t="s">
         <v>141</v>
@@ -4338,7 +4307,7 @@
         <v>124</v>
       </c>
       <c r="B133" s="18" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C133" s="18" t="s">
         <v>142</v>
@@ -4357,13 +4326,13 @@
         <v>125</v>
       </c>
       <c r="B134" s="18" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C134" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D134" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E134" s="18">
         <v>80</v>
@@ -4376,7 +4345,7 @@
         <v>126</v>
       </c>
       <c r="B135" s="18" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C135" s="18" t="s">
         <v>144</v>
@@ -4395,7 +4364,7 @@
         <v>127</v>
       </c>
       <c r="B136" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C136" s="18" t="s">
         <v>145</v>
@@ -4414,7 +4383,7 @@
         <v>128</v>
       </c>
       <c r="B137" s="18" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C137" s="18" t="s">
         <v>146</v>
@@ -4433,13 +4402,13 @@
         <v>129</v>
       </c>
       <c r="B138" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C138" s="18" t="s">
         <v>147</v>
       </c>
       <c r="D138" s="18" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E138" s="18">
         <v>8</v>
@@ -4452,13 +4421,13 @@
         <v>130</v>
       </c>
       <c r="B139" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C139" s="18" t="s">
         <v>148</v>
       </c>
       <c r="D139" s="18" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E139" s="18">
         <v>50</v>
@@ -4471,10 +4440,10 @@
         <v>131</v>
       </c>
       <c r="B140" s="18" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="D140" s="18" t="s">
         <v>3</v>
@@ -4490,13 +4459,13 @@
         <v>132</v>
       </c>
       <c r="B141" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="C141" s="18" t="s">
         <v>284</v>
       </c>
-      <c r="C141" s="18" t="s">
+      <c r="D141" s="18" t="s">
         <v>285</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>286</v>
       </c>
       <c r="E141" s="18"/>
       <c r="F141" s="18"/>
@@ -4507,10 +4476,10 @@
         <v>133</v>
       </c>
       <c r="B142" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="C142" s="18" t="s">
         <v>287</v>
-      </c>
-      <c r="C142" s="18" t="s">
-        <v>288</v>
       </c>
       <c r="D142" s="18" t="s">
         <v>3</v>
@@ -4526,13 +4495,13 @@
         <v>134</v>
       </c>
       <c r="B143" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="C143" s="18" t="s">
         <v>289</v>
       </c>
-      <c r="C143" s="18" t="s">
-        <v>290</v>
-      </c>
       <c r="D143" s="18" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E143" s="18"/>
       <c r="F143" s="18"/>
@@ -4543,10 +4512,10 @@
         <v>135</v>
       </c>
       <c r="B144" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="C144" s="18" t="s">
         <v>291</v>
-      </c>
-      <c r="C144" s="18" t="s">
-        <v>292</v>
       </c>
       <c r="D144" s="18" t="s">
         <v>3</v>
@@ -4575,12 +4544,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -4604,109 +4573,109 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>301</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
